--- a/docs/maxBet.xlsx
+++ b/docs/maxBet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD267F4-2DF4-4C0E-A3A8-897D537558EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C992C1C-C908-40DB-9B71-E84CEBC9811A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1335" windowWidth="25875" windowHeight="13485" xr2:uid="{D9AA7338-211A-4FEA-8FCC-26CCB9AD932F}"/>
+    <workbookView xWindow="31800" yWindow="3045" windowWidth="23940" windowHeight="12585" xr2:uid="{D9AA7338-211A-4FEA-8FCC-26CCB9AD932F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>cf</t>
   </si>
@@ -87,6 +87,33 @@
   </si>
   <si>
     <t>matchExposure</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>tue</t>
+  </si>
+  <si>
+    <t>wed</t>
+  </si>
+  <si>
+    <t>thurs</t>
+  </si>
+  <si>
+    <t>fri</t>
+  </si>
+  <si>
+    <t>nextStart</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
 </sst>
 </file>
@@ -124,7 +151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -289,18 +316,20 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D60A2F-A03B-4666-ADE9-5383B936A718}">
-  <dimension ref="D3:Z35"/>
+  <dimension ref="D3:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,6 +657,7 @@
     <col min="12" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:21" x14ac:dyDescent="0.25">
@@ -645,6 +675,9 @@
       <c r="G4">
         <v>2000</v>
       </c>
+      <c r="H4">
+        <v>1.5</v>
+      </c>
       <c r="M4" s="5" t="s">
         <v>5</v>
       </c>
@@ -676,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>14</v>
       </c>
@@ -691,473 +724,1133 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="6" t="s">
+    <row r="8" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8" t="s">
+      <c r="N8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P8" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <f>D9*F4/1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="14">
+        <f>E9*G4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <f>D9</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" ref="I9" si="0">E9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" ref="J9" si="1">F9</f>
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" ref="K9" si="2">G9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f>N7/(F4/1000)</f>
+        <v>12</v>
+      </c>
+      <c r="M9" s="16">
+        <f>N7/(G4/1000)</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="16">
+        <f>J9-I9</f>
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="16">
+        <f>K9-H9</f>
+        <v>-1</v>
+      </c>
+      <c r="P9" s="17">
+        <f>MAX(N9,O9)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9" s="30">
+        <v>45178</v>
+      </c>
     </row>
     <row r="10" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <f>D10*F$4/1000</f>
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="14">
-        <f>E10*G$4/1000</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="13">
-        <f>D10</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" ref="I10" si="0">E10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <f t="shared" ref="J10" si="1">F10</f>
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="13">
-        <f t="shared" ref="K10" si="2">G10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="15">
-        <f>N$7/(F$4/1000)</f>
+      <c r="D10" s="18">
+        <v>11</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <f>D10*F4/1000</f>
+        <v>5.5</v>
+      </c>
+      <c r="G10" s="20">
+        <f>E10*G4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <f>H9+D10</f>
         <v>12</v>
       </c>
-      <c r="M10" s="16">
-        <f>N$7/(G$4/1000)</f>
+      <c r="I10" s="19">
+        <f t="shared" ref="I10" si="3">I9+E10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" ref="J10" si="4">J9+F10</f>
+        <v>6</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" ref="K10" si="5">K9+G10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
+        <f>(MIN(N$7-MAX(N9,O9),N$4-N$5)+MAX(O9-N9,0))/(F$4/1000)</f>
+        <v>11</v>
+      </c>
+      <c r="M10" s="22">
+        <f>(MIN(N$7-MAX(N9,O9),N$4-N$5)+MAX(N9-O9,0))/(G$4/1000)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N10" s="22">
+        <f>J10-I10</f>
+        <v>6</v>
+      </c>
+      <c r="O10" s="22">
+        <f>K10-H10</f>
+        <v>-12</v>
+      </c>
+      <c r="P10" s="23">
+        <f>MAX(N10,O10)</f>
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="31">
+        <v>45173</v>
+      </c>
+      <c r="T10">
+        <f>WEEKDAY(S10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>9</v>
+      </c>
+      <c r="F11" s="19">
+        <f>D11*F4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f>E11*G4/1000</f>
+        <v>18</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" ref="H11:H13" si="6">H10+D11</f>
+        <v>12</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" ref="I11:I13" si="7">I10+E11</f>
+        <v>9</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" ref="J11:J13" si="8">J10+F11</f>
+        <v>6</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" ref="K11:K13" si="9">K10+G11</f>
+        <v>18</v>
+      </c>
+      <c r="L11" s="21">
+        <f>(MIN(N$7-MAX(N10,O10),N$4-N$5)+MAX(O10-N10,0))/(F$4/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <f t="shared" ref="M11:M16" si="10">(MIN(N$7-MAX(N10,O10),N$4-N$5)+MAX(N10-O10,0))/(G$4/1000)</f>
+        <v>9</v>
+      </c>
+      <c r="N11" s="22">
+        <f t="shared" ref="N11:N13" si="11">J11-I11</f>
+        <v>-3</v>
+      </c>
+      <c r="O11" s="22">
+        <f t="shared" ref="O11:O13" si="12">K11-H11</f>
+        <v>6</v>
+      </c>
+      <c r="P11" s="23">
+        <f t="shared" ref="P11:P13" si="13">MAX(N11,O11)</f>
+        <v>6</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="31">
+        <v>45174</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11:T21" si="14">WEEKDAY(S11)</f>
         <v>3</v>
       </c>
-      <c r="N10" s="16">
-        <f>J10-I10</f>
-        <v>0.5</v>
-      </c>
-      <c r="O10" s="16">
-        <f>K10-H10</f>
-        <v>-1</v>
-      </c>
-      <c r="P10" s="17">
-        <f>MAX(N10,O10)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
-        <v>1</v>
-      </c>
-      <c r="F11" s="24">
-        <f>D11*F$4/1000</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="25">
-        <f>E11*G$4/1000</f>
-        <v>2</v>
-      </c>
-      <c r="H11" s="24">
-        <f>H10+D11</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="24">
-        <f t="shared" ref="I11" si="3">I10+E11</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="24">
-        <f t="shared" ref="J11" si="4">J10+F11</f>
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="24">
-        <f t="shared" ref="K11" si="5">K10+G11</f>
-        <v>2</v>
-      </c>
-      <c r="L11" s="28">
-        <f>MAX(-$N10+$O10,0)+MIN($N$7-MAX($N10,$O10),N$4-N$5)</f>
-        <v>5.5</v>
-      </c>
-      <c r="M11" s="26">
-        <f>MAX(-$O10+$N10,0)+MIN($N$7-MAX($N10,$O10),N$4-N$5)</f>
-        <v>7</v>
-      </c>
-      <c r="N11" s="26">
-        <f>J11-I11</f>
-        <v>-0.5</v>
-      </c>
-      <c r="O11" s="26">
-        <f>K11-H11</f>
-        <v>1</v>
-      </c>
-      <c r="P11" s="27">
-        <f>MAX(N11,O11)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="24">
-        <v>1</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" ref="F12:F14" si="6">D12*F$4/1000</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="25">
-        <f t="shared" ref="G12:G14" si="7">E12*G$4/1000</f>
-        <v>2</v>
-      </c>
-      <c r="H12" s="24">
-        <f t="shared" ref="H12:H14" si="8">H11+D12</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="24">
-        <f t="shared" ref="I12:I14" si="9">I11+E12</f>
-        <v>2</v>
-      </c>
-      <c r="J12" s="24">
-        <f t="shared" ref="J12:J14" si="10">J11+F12</f>
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="24">
-        <f t="shared" ref="K12:K14" si="11">K11+G12</f>
-        <v>4</v>
-      </c>
-      <c r="L12" s="28">
-        <f t="shared" ref="L12:L14" si="12">MAX(-$N11+$O11,0)+MIN($N$7-MAX($N11,$O11),N$4-N$5)</f>
-        <v>6.5</v>
-      </c>
-      <c r="M12" s="26">
-        <f t="shared" ref="M12:M14" si="13">MAX(-$O11+$N11,0)+MIN($N$7-MAX($N11,$O11),N$4-N$5)</f>
-        <v>5</v>
-      </c>
-      <c r="N12" s="26">
-        <f t="shared" ref="N12:N14" si="14">J12-I12</f>
-        <v>-1.5</v>
-      </c>
-      <c r="O12" s="26">
-        <f t="shared" ref="O12:O14" si="15">K12-H12</f>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="19">
+        <f>D12*F4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f>E12*G4/1000</f>
         <v>3</v>
       </c>
-      <c r="P12" s="27">
-        <f t="shared" ref="P12:P14" si="16">MAX(N12,O12)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D13" s="23">
-        <v>0</v>
-      </c>
-      <c r="E13" s="24">
-        <v>1.5</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="H12" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="25">
+        <v>12</v>
+      </c>
+      <c r="I12" s="19">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="H13" s="24">
+        <v>10.5</v>
+      </c>
+      <c r="J12" s="19">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="24">
+        <v>6</v>
+      </c>
+      <c r="K12" s="19">
         <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-      <c r="J13" s="24">
+        <v>21</v>
+      </c>
+      <c r="L12" s="21">
+        <f t="shared" ref="L11:L16" si="15">(MIN(N$7-MAX(N11,O11),N$4-N$5)+MAX(O11-N11,0))/(F$4/1000)</f>
+        <v>18</v>
+      </c>
+      <c r="M12" s="22">
         <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="24">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="L13" s="28">
-        <f t="shared" si="12"/>
-        <v>7.5</v>
-      </c>
-      <c r="M13" s="26">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="N13" s="26">
-        <f t="shared" si="14"/>
-        <v>-3</v>
-      </c>
-      <c r="O13" s="26">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="P13" s="27">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D14" s="23">
-        <v>1</v>
-      </c>
-      <c r="E14" s="24">
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="I14" s="24">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
-      </c>
-      <c r="J14" s="24">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="24">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="L14" s="28">
+        <v>-4.5</v>
+      </c>
+      <c r="O12" s="22">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="M14" s="26">
+      <c r="P12" s="23">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="26">
+        <v>9</v>
+      </c>
+      <c r="R12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="31">
+        <v>45175</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <f>D13*F4/1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="20">
+        <f>E13*G4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="7"/>
+        <v>10.5</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="8"/>
+        <v>6.5</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" si="10"/>
+        <v>-1.5</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+      <c r="O13" s="22">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="R13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="31">
+        <v>45176</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <f>D14*F4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <f>E14*G4/1000</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="19">
+        <f t="shared" ref="H14:H16" si="16">H13+D14</f>
+        <v>13</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" ref="I14:I16" si="17">I13+E14</f>
+        <v>11.5</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" ref="J14:J16" si="18">J13+F14</f>
+        <v>6.5</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" ref="K14:K16" si="19">K13+G14</f>
+        <v>23</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" ref="N14:N16" si="20">J14-I14</f>
+        <v>-5</v>
+      </c>
+      <c r="O14" s="22">
+        <f t="shared" ref="O14:O16" si="21">K14-H14</f>
+        <v>10</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" ref="P14:P16" si="22">MAX(N14,O14)</f>
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="31">
+        <v>45177</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <f>D15*F4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <f>E15*G4/1000</f>
+        <v>2</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="17"/>
+        <v>12.5</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="18"/>
+        <v>6.5</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="20"/>
+        <v>-6</v>
+      </c>
+      <c r="O15" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="P15" s="23">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="R15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="31">
+        <v>45178</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="U15" s="3">
+        <f>T15-T11</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25">
+        <f>D16*F4/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="26">
+        <f>E16*G4/1000</f>
+        <v>2</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" si="17"/>
+        <v>13.5</v>
+      </c>
+      <c r="J16" s="25">
+        <f t="shared" si="18"/>
+        <v>6.5</v>
+      </c>
+      <c r="K16" s="25">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="N16" s="28">
+        <f t="shared" si="20"/>
+        <v>-7</v>
+      </c>
+      <c r="O16" s="28">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="P16" s="29">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="S16" s="31">
+        <v>45179</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="S17" s="31">
+        <v>45180</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="31">
+        <v>45181</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>500</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="H19">
+        <v>1.5</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>30</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="S19" s="31">
+        <v>45182</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>500</v>
+      </c>
+      <c r="G20">
+        <f>INT(1000000/(F20+45))-45</f>
+        <v>1789</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="S20" s="31">
+        <v>45183</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="M21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5</v>
+      </c>
+      <c r="S21" s="31">
+        <v>45184</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="1">
+        <f>N19/N21</f>
+        <v>6</v>
+      </c>
+      <c r="S22" s="31">
+        <v>45185</v>
+      </c>
+    </row>
+    <row r="23" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="31">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <f>D24*F19/1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="14">
+        <f>E24*G19/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <f>D24</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" ref="I24" si="23">E24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" ref="J24" si="24">F24</f>
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="shared" ref="K24" si="25">G24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <f>N22/(F19/1000)</f>
+        <v>12</v>
+      </c>
+      <c r="M24" s="16">
+        <f>N22/(G19/1000)</f>
+        <v>3</v>
+      </c>
+      <c r="N24" s="16">
+        <f>J24-I24</f>
+        <v>0.5</v>
+      </c>
+      <c r="O24" s="16">
+        <f>K24-H24</f>
+        <v>-1</v>
+      </c>
+      <c r="P24" s="17">
+        <f>MAX(N24,O24)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S24" s="31">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19">
+        <f>D25*F19/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <f>E25*G19/1000</f>
+        <v>2</v>
+      </c>
+      <c r="H25" s="19">
+        <f>H24+D25</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="19">
+        <f t="shared" ref="I25:I31" si="26">I24+E25</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" ref="J25:J31" si="27">J24+F25</f>
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="19">
+        <f t="shared" ref="K25:K31" si="28">K24+G25</f>
+        <v>2</v>
+      </c>
+      <c r="L25" s="21">
+        <f>MAX(-N24+O24,0)+MIN(N22-MAX(N24,O24),N19-N20)</f>
+        <v>5.5</v>
+      </c>
+      <c r="M25" s="22">
+        <f>MAX(-O24+N24,0)+MIN(N22-MAX(N24,O24),N19-N20)</f>
+        <v>7</v>
+      </c>
+      <c r="N25" s="22">
+        <f>J25-I25</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O25" s="22">
+        <f>K25-H25</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="23">
+        <f>MAX(N25,O25)</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="31">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="26" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D26" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19">
+        <f>D26*F19/1000</f>
+        <v>2.75</v>
+      </c>
+      <c r="G26" s="20">
+        <f>E26*G19/1000</f>
+        <v>2</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" ref="H26:H31" si="29">H25+D26</f>
+        <v>6.5</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="19">
+        <f t="shared" si="27"/>
+        <v>3.25</v>
+      </c>
+      <c r="K26" s="19">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="L26" s="21">
+        <f>MAX(-N25+O25,0)+MIN(N22-MAX(N25,O25),N19-N20)</f>
+        <v>6.5</v>
+      </c>
+      <c r="M26" s="22">
+        <f>MAX(-O25+N25,0)+MIN(N22-MAX(N25,O25),N19-N20)</f>
+        <v>5</v>
+      </c>
+      <c r="N26" s="22">
+        <f t="shared" ref="N26:N31" si="30">J26-I26</f>
+        <v>1.25</v>
+      </c>
+      <c r="O26" s="22">
+        <f t="shared" ref="O26:O31" si="31">K26-H26</f>
         <v>-2.5</v>
       </c>
-      <c r="O14" s="26">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="P14" s="27">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
-      <c r="E15" s="24">
-        <v>1</v>
-      </c>
-      <c r="F15" s="24">
-        <f t="shared" ref="F15:F17" si="17">D15*F$4/1000</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="25">
-        <f t="shared" ref="G15:G17" si="18">E15*G$4/1000</f>
+      <c r="P26" s="23">
+        <f t="shared" ref="P26:P31" si="32">MAX(N26,O26)</f>
+        <v>1.25</v>
+      </c>
+      <c r="S26" s="31">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="27" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D27" s="18">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="19">
+        <f>D27*F19/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <f>E27*G19/1000</f>
+        <v>3</v>
+      </c>
+      <c r="H27" s="19">
+        <f t="shared" si="29"/>
+        <v>6.5</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" si="26"/>
+        <v>3.5</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" si="27"/>
+        <v>3.25</v>
+      </c>
+      <c r="K27" s="19">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="L27" s="21">
+        <f>MAX(-N26+O26,0)+MIN(N22-MAX(N26,O26),N19-N20)</f>
+        <v>4.75</v>
+      </c>
+      <c r="M27" s="22">
+        <f>MAX(-O26+N26,0)+MIN(N22-MAX(N26,O26),N19-N20)</f>
+        <v>8.5</v>
+      </c>
+      <c r="N27" s="22">
+        <f t="shared" si="30"/>
+        <v>-0.25</v>
+      </c>
+      <c r="O27" s="22">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="P27" s="23">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="S27" s="31">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="28" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19">
+        <f>D28*F19/1000</f>
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="20">
+        <f>E28*G19/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="19">
+        <f t="shared" si="29"/>
+        <v>7.5</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" si="26"/>
+        <v>3.5</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" si="27"/>
+        <v>3.75</v>
+      </c>
+      <c r="K28" s="19">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="L28" s="21">
+        <f>MAX(-N27+O27,0)+MIN(N22-MAX(N27,O27),N19-N20)</f>
+        <v>6.25</v>
+      </c>
+      <c r="M28" s="22">
+        <f>MAX(-O27+N27,0)+MIN(N22-MAX(N27,O27),N19-N20)</f>
+        <v>5.5</v>
+      </c>
+      <c r="N28" s="22">
+        <f t="shared" si="30"/>
+        <v>0.25</v>
+      </c>
+      <c r="O28" s="22">
+        <f t="shared" si="31"/>
+        <v>-0.5</v>
+      </c>
+      <c r="P28" s="23">
+        <f t="shared" si="32"/>
+        <v>0.25</v>
+      </c>
+      <c r="S28" s="31">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="29" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D29" s="18">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19">
+        <f>D29*F19/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="20">
+        <f>E29*G19/1000</f>
         <v>2</v>
       </c>
-      <c r="H15" s="24">
-        <f t="shared" ref="H15:H17" si="19">H14+D15</f>
+      <c r="H29" s="19">
+        <f t="shared" si="29"/>
+        <v>7.5</v>
+      </c>
+      <c r="I29" s="19">
+        <f t="shared" si="26"/>
+        <v>4.5</v>
+      </c>
+      <c r="J29" s="19">
+        <f t="shared" si="27"/>
+        <v>3.75</v>
+      </c>
+      <c r="K29" s="19">
+        <f t="shared" si="28"/>
+        <v>9</v>
+      </c>
+      <c r="L29" s="21">
+        <f>MAX(-N28+O28,0)+MIN(N22-MAX(N28,O28),N19-N20)</f>
+        <v>5.75</v>
+      </c>
+      <c r="M29" s="22">
+        <f>MAX(-O28+N28,0)+MIN(N22-MAX(N28,O28),N19-N20)</f>
+        <v>6.5</v>
+      </c>
+      <c r="N29" s="22">
+        <f t="shared" si="30"/>
+        <v>-0.75</v>
+      </c>
+      <c r="O29" s="22">
+        <f t="shared" si="31"/>
+        <v>1.5</v>
+      </c>
+      <c r="P29" s="23">
+        <f t="shared" si="32"/>
+        <v>1.5</v>
+      </c>
+      <c r="S29" s="31">
+        <v>45192</v>
+      </c>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+    </row>
+    <row r="30" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D30" s="18">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19">
+        <f>D30*F19/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="20">
+        <f>E30*G19/1000</f>
         <v>2</v>
       </c>
-      <c r="I15" s="24">
-        <f t="shared" ref="I15:I17" si="20">I14+E15</f>
+      <c r="H30" s="19">
+        <f t="shared" si="29"/>
+        <v>7.5</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" si="26"/>
+        <v>5.5</v>
+      </c>
+      <c r="J30" s="19">
+        <f t="shared" si="27"/>
+        <v>3.75</v>
+      </c>
+      <c r="K30" s="19">
+        <f t="shared" si="28"/>
+        <v>11</v>
+      </c>
+      <c r="L30" s="21">
+        <f>MAX(-N29+O29,0)+MIN(N22-MAX(N29,O29),N19-N20)</f>
+        <v>6.75</v>
+      </c>
+      <c r="M30" s="22">
+        <f>MAX(-O29+N29,0)+MIN(N22-MAX(N29,O29),N19-N20)</f>
         <v>4.5</v>
       </c>
-      <c r="J15" s="24">
-        <f t="shared" ref="J15:J17" si="21">J14+F15</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="24">
-        <f t="shared" ref="K15:K17" si="22">K14+G15</f>
-        <v>9</v>
-      </c>
-      <c r="L15" s="28">
-        <f t="shared" ref="L15:L17" si="23">MAX(-$N14+$O14,0)+MIN($N$7-MAX($N14,$O14),N$4-N$5)</f>
-        <v>8.5</v>
-      </c>
-      <c r="M15" s="26">
-        <f t="shared" ref="M15:M17" si="24">MAX(-$O14+$N14,0)+MIN($N$7-MAX($N14,$O14),N$4-N$5)</f>
-        <v>1</v>
-      </c>
-      <c r="N15" s="26">
-        <f t="shared" ref="N15:N17" si="25">J15-I15</f>
-        <v>-3.5</v>
-      </c>
-      <c r="O15" s="26">
-        <f t="shared" ref="O15:O17" si="26">K15-H15</f>
-        <v>7</v>
-      </c>
-      <c r="P15" s="27">
-        <f t="shared" ref="P15:P17" si="27">MAX(N15,O15)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="23">
-        <v>0</v>
-      </c>
-      <c r="E16" s="24">
-        <v>1</v>
-      </c>
-      <c r="F16" s="24">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="25">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="H16" s="24">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="I16" s="24">
-        <f t="shared" si="20"/>
-        <v>5.5</v>
-      </c>
-      <c r="J16" s="24">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="24">
-        <f t="shared" si="22"/>
-        <v>11</v>
-      </c>
-      <c r="L16" s="28">
-        <f t="shared" si="23"/>
-        <v>9.5</v>
-      </c>
-      <c r="M16" s="26">
-        <f t="shared" si="24"/>
-        <v>-1</v>
-      </c>
-      <c r="N16" s="26">
-        <f t="shared" si="25"/>
-        <v>-4.5</v>
-      </c>
-      <c r="O16" s="26">
-        <f t="shared" si="26"/>
-        <v>9</v>
-      </c>
-      <c r="P16" s="27">
-        <f t="shared" si="27"/>
-        <v>9</v>
-      </c>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="18">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="H17" s="19">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="I17" s="19">
-        <f t="shared" si="20"/>
-        <v>6.5</v>
-      </c>
-      <c r="J17" s="19">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <f t="shared" si="22"/>
-        <v>13</v>
-      </c>
-      <c r="L17" s="29">
-        <f t="shared" si="23"/>
-        <v>10.5</v>
-      </c>
-      <c r="M17" s="21">
-        <f t="shared" si="24"/>
-        <v>-3</v>
-      </c>
-      <c r="N17" s="21">
-        <f t="shared" si="25"/>
-        <v>-5.5</v>
-      </c>
-      <c r="O17" s="21">
-        <f t="shared" si="26"/>
-        <v>11</v>
-      </c>
-      <c r="P17" s="22">
-        <f t="shared" si="27"/>
-        <v>11</v>
-      </c>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="30" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="N30" s="22">
+        <f t="shared" si="30"/>
+        <v>-1.75</v>
+      </c>
+      <c r="O30" s="22">
+        <f t="shared" si="31"/>
+        <v>3.5</v>
+      </c>
+      <c r="P30" s="23">
+        <f t="shared" si="32"/>
+        <v>3.5</v>
+      </c>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
     </row>
-    <row r="31" spans="4:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="25">
+        <v>1</v>
+      </c>
+      <c r="F31" s="25">
+        <f>D31*F19/1000</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="26">
+        <f>E31*G19/1000</f>
+        <v>2</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" si="29"/>
+        <v>7.5</v>
+      </c>
+      <c r="I31" s="25">
+        <f t="shared" si="26"/>
+        <v>6.5</v>
+      </c>
+      <c r="J31" s="25">
+        <f t="shared" si="27"/>
+        <v>3.75</v>
+      </c>
+      <c r="K31" s="25">
+        <f t="shared" si="28"/>
+        <v>13</v>
+      </c>
+      <c r="L31" s="27">
+        <f>MAX(-N30+O30,0)+MIN(N22-MAX(N30,O30),N19-N20)</f>
+        <v>7.75</v>
+      </c>
+      <c r="M31" s="28">
+        <f>MAX(-O30+N30,0)+MIN(N22-MAX(N30,O30),N19-N20)</f>
+        <v>2.5</v>
+      </c>
+      <c r="N31" s="28">
+        <f t="shared" si="30"/>
+        <v>-2.75</v>
+      </c>
+      <c r="O31" s="28">
+        <f t="shared" si="31"/>
+        <v>5.5</v>
+      </c>
+      <c r="P31" s="29">
+        <f t="shared" si="32"/>
+        <v>5.5</v>
+      </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="9"/>
@@ -1169,21 +1862,37 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
     </row>
-    <row r="33" spans="23:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:26" x14ac:dyDescent="0.25">
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
     </row>
-    <row r="34" spans="23:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:26" x14ac:dyDescent="0.25">
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-    </row>
-    <row r="35" spans="23:26" x14ac:dyDescent="0.25">
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
+    </row>
+    <row r="36" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36">
+        <v>1693958400</v>
+      </c>
+    </row>
+    <row r="37" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37">
+        <v>1693916294</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
